--- a/Project Detail/timeline of working.xlsx
+++ b/Project Detail/timeline of working.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaif.ali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E665DF3-9C1C-4040-A5F2-91F60EAF1CAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCDA2E9-69A2-4765-B7B3-E8B2CFAC3926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Task Name</t>
   </si>
@@ -157,6 +168,18 @@
   </si>
   <si>
     <t>App UI/Logic implementation:</t>
+  </si>
+  <si>
+    <t>Mustassum Tanvir</t>
+  </si>
+  <si>
+    <t>Project Report</t>
+  </si>
+  <si>
+    <t>Timeline of the Project</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
   </si>
 </sst>
 </file>
@@ -666,11 +689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -711,7 +734,7 @@
       </c>
       <c r="B2" s="8">
         <f>DATEDIF(D2, E2, "d")</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
@@ -721,11 +744,11 @@
         <v>45290</v>
       </c>
       <c r="E2" s="10">
-        <f>DATE(2024,1,22)</f>
-        <v>45313</v>
+        <f>DATE(2024,1,25)</f>
+        <v>45316</v>
       </c>
       <c r="F2" s="11" t="str">
-        <f>IF(C:C="Syed Kaif Ali","Project Manager",IF(C:C="Tashfeen","Business Analyst",IF(C:C="Taha Mir","UI Designer",IF(C:C="Abdul Majid","App Front-end",IF(C:C="Mustassum Tanvir","App Front-end",IF(C:C="Ahmad Irfan","App Front-end",""))))))</f>
+        <f t="shared" ref="F2:F18" si="0">IF(C:C="Syed Kaif Ali","Project Manager",IF(C:C="Tashfeen","Business Analyst",IF(C:C="Taha Mir","UI Designer",IF(C:C="Abdul Majid","App Front-end",IF(C:C="Mustassum Tanvir","App Front-end",IF(C:C="Ahmad Irfan","App Front-end",""))))))</f>
         <v/>
       </c>
     </row>
@@ -738,7 +761,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11" t="str">
-        <f t="shared" ref="F2:F46" si="0">IF(C:C="Syed Kaif Ali","Project Manager",IF(C:C="Tashfeen","Business Analyst",IF(C:C="Taha Mir","UI Designer",IF(C:C="Abdul Majid","App Front-end",IF(C:C="Mustassum Tanvir","App Front-end",IF(C:C="Ahmad Irfan","App Front-end",""))))))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -766,26 +789,51 @@
         <v>Project Manager</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="12"/>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="8">
+        <f>E5-D5</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="17">
+        <f>DATE(2024,1,24)</f>
+        <v>45315</v>
+      </c>
+      <c r="E5" s="17">
+        <f>DATE(2024,1,25)</f>
+        <v>45316</v>
+      </c>
       <c r="F5" s="11" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Project Manager</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="17">
+        <f>DATE(2023,12,30)</f>
+        <v>45290</v>
+      </c>
+      <c r="E6" s="17">
+        <f>DATE(2024,1,1)</f>
+        <v>45292</v>
+      </c>
       <c r="F6" s="11" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Project Manager</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -979,7 +1027,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="16">
-        <f t="shared" ref="B17:B19" si="1">DATEDIF(D19, E19, "d")</f>
+        <f t="shared" ref="B19" si="1">DATEDIF(D19, E19, "d")</f>
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1000,7 +1048,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B20" s="16"/>
       <c r="F20" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F20:F45" si="2">IF(C:C="Syed Kaif Ali","Project Manager",IF(C:C="Tashfeen","Business Analyst",IF(C:C="Taha Mir","UI Designer",IF(C:C="Abdul Majid","App Front-end",IF(C:C="Mustassum Tanvir","App Front-end",IF(C:C="Ahmad Irfan","App Front-end",""))))))</f>
         <v/>
       </c>
     </row>
@@ -1010,7 +1058,7 @@
       </c>
       <c r="B21" s="16"/>
       <c r="F21" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1020,7 +1068,7 @@
       </c>
       <c r="B22" s="16"/>
       <c r="F22" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1029,11 +1077,11 @@
         <v>38</v>
       </c>
       <c r="B23" s="16">
-        <f t="shared" ref="B23:B29" si="2">DATEDIF(D23, E23, "d")</f>
+        <f t="shared" ref="B23:B29" si="3">DATEDIF(D23, E23, "d")</f>
         <v>5</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D23" s="26">
         <f>DATE(2024,1,9)</f>
@@ -1044,7 +1092,7 @@
         <v>45305</v>
       </c>
       <c r="F23" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>App Front-end</v>
       </c>
       <c r="G23" s="20"/>
@@ -1054,22 +1102,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D24" s="26">
-        <f t="shared" ref="D24:D29" si="3">DATE(2024,1,9)</f>
+        <f t="shared" ref="D24:D29" si="4">DATE(2024,1,9)</f>
         <v>45300</v>
       </c>
       <c r="E24" s="27">
-        <f t="shared" ref="E24:E29" si="4">DATE(2024,1,14)</f>
+        <f t="shared" ref="E24:E29" si="5">DATE(2024,1,14)</f>
         <v>45305</v>
       </c>
       <c r="F24" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>App Front-end</v>
       </c>
       <c r="G24" s="20"/>
@@ -1079,22 +1127,22 @@
         <v>22</v>
       </c>
       <c r="B25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D25" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45300</v>
       </c>
       <c r="E25" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45305</v>
       </c>
       <c r="F25" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>App Front-end</v>
       </c>
       <c r="G25" s="20"/>
@@ -1104,22 +1152,22 @@
         <v>23</v>
       </c>
       <c r="B26" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D26" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45300</v>
       </c>
       <c r="E26" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45305</v>
       </c>
       <c r="F26" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>App Front-end</v>
       </c>
       <c r="G26" s="20"/>
@@ -1129,22 +1177,22 @@
         <v>24</v>
       </c>
       <c r="B27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45300</v>
       </c>
       <c r="E27" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45305</v>
       </c>
       <c r="F27" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>App Front-end</v>
       </c>
       <c r="G27" s="20"/>
@@ -1154,22 +1202,22 @@
         <v>25</v>
       </c>
       <c r="B28" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45300</v>
       </c>
       <c r="E28" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45305</v>
       </c>
       <c r="F28" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>App Front-end</v>
       </c>
       <c r="G28" s="20"/>
@@ -1179,36 +1227,36 @@
         <v>26</v>
       </c>
       <c r="B29" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45300</v>
       </c>
       <c r="E29" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45305</v>
       </c>
       <c r="F29" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>App Front-end</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B30" s="16"/>
       <c r="F30" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B31" s="16"/>
       <c r="F31" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1217,7 +1265,7 @@
         <v>28</v>
       </c>
       <c r="F32" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1225,114 +1273,239 @@
       <c r="A33" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="B33" s="2">
+        <f t="shared" ref="B33:B41" si="6">E33-D33</f>
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="26">
+        <f>DATE(2024,1,17)</f>
+        <v>45308</v>
+      </c>
+      <c r="E33" s="27">
+        <f>DATE(2024,1,21)</f>
+        <v>45312</v>
+      </c>
       <c r="F33" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>App Front-end</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="26">
+        <f>DATE(2024,1,17)</f>
+        <v>45308</v>
+      </c>
+      <c r="E34" s="27">
+        <f>DATE(2024,1,21)</f>
+        <v>45312</v>
       </c>
       <c r="F34" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>App Front-end</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="26">
+        <f>DATE(2024,1,17)</f>
+        <v>45308</v>
+      </c>
+      <c r="E35" s="27">
+        <f>DATE(2024,1,21)</f>
+        <v>45312</v>
       </c>
       <c r="F35" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>App Front-end</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="26">
+        <f>DATE(2024,1,18)</f>
+        <v>45309</v>
+      </c>
+      <c r="E36" s="27">
+        <f>DATE(2024,1,23)</f>
+        <v>45314</v>
       </c>
       <c r="F36" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>App Front-end</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="26">
+        <f>DATE(2024,1,18)</f>
+        <v>45309</v>
+      </c>
+      <c r="E37" s="27">
+        <f>DATE(2024,1,23)</f>
+        <v>45314</v>
       </c>
       <c r="F37" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>App Front-end</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="26">
+        <f>DATE(2024,1,18)</f>
+        <v>45309</v>
+      </c>
+      <c r="E38" s="27">
+        <f>DATE(2024,1,23)</f>
+        <v>45314</v>
       </c>
       <c r="F38" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>App Front-end</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="26">
+        <f>DATE(2024,1,19)</f>
+        <v>45310</v>
+      </c>
+      <c r="E39" s="27">
+        <f>DATE(2024,1,25)</f>
+        <v>45316</v>
       </c>
       <c r="F39" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>App Front-end</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="26">
+        <f>DATE(2024,1,19)</f>
+        <v>45310</v>
+      </c>
+      <c r="E40" s="27">
+        <f>DATE(2024,1,25)</f>
+        <v>45316</v>
       </c>
       <c r="F40" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>App Front-end</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="26">
+        <f>DATE(2024,1,19)</f>
+        <v>45310</v>
+      </c>
+      <c r="E41" s="27">
+        <f>DATE(2024,1,25)</f>
+        <v>45316</v>
       </c>
       <c r="F41" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>App Front-end</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="F42" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F43" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F44" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F45" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F46" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
